--- a/output/mysiadlo/2018/sheets/year_2018.xlsx
+++ b/output/mysiadlo/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>46.11935483870968</v>
+        <v>55.00777444674557</v>
       </c>
       <c r="C2" t="n">
-        <v>41.99677419354838</v>
+        <v>49.42223034776408</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>54.71428571428572</v>
+        <v>56.13017843715555</v>
       </c>
       <c r="C3" t="n">
-        <v>49.33928571428571</v>
+        <v>49.79519147954</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>53.63548387096775</v>
+        <v>55.85356104483979</v>
       </c>
       <c r="C4" t="n">
-        <v>49.13225806451614</v>
+        <v>49.79297732036963</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>54.84666666666666</v>
+        <v>56.63993304648324</v>
       </c>
       <c r="C5" t="n">
-        <v>48.53</v>
+        <v>51.13093169504265</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>53.38709677419354</v>
+        <v>55.47172594893323</v>
       </c>
       <c r="C6" t="n">
-        <v>49.14516129032258</v>
+        <v>49.98587872977021</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>56.85000000000001</v>
+        <v>57.9843366646074</v>
       </c>
       <c r="C7" t="n">
-        <v>52.7</v>
+        <v>53.00423550297129</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>58.50645161290322</v>
+        <v>58.95173650045241</v>
       </c>
       <c r="C8" t="n">
-        <v>52.75483870967742</v>
+        <v>53.18679714505897</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.06129032258063</v>
+        <v>57.53911029293445</v>
       </c>
       <c r="C9" t="n">
-        <v>50.54516129032258</v>
+        <v>51.3046083506628</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>57.89666666666667</v>
+        <v>58.74942395267576</v>
       </c>
       <c r="C10" t="n">
-        <v>51.9</v>
+        <v>52.39904456075229</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.79677419354839</v>
+        <v>57.79383214332709</v>
       </c>
       <c r="C11" t="n">
-        <v>50.51290322580645</v>
+        <v>51.50053368586903</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.34000000000001</v>
+        <v>54.99088532068947</v>
       </c>
       <c r="C12" t="n">
-        <v>48.96</v>
+        <v>49.99591742776051</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>56.88709677419354</v>
+        <v>58.04483620080084</v>
       </c>
       <c r="C13" t="n">
-        <v>51.04516129032258</v>
+        <v>51.73981931829268</v>
       </c>
     </row>
   </sheetData>
